--- a/Assets/ArtRes/Excel/SceneInfo.xlsx
+++ b/Assets/ArtRes/Excel/SceneInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\TowerDefenseGame\Assets\ArtRes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitUpData\TowerDefenseGame\TowerDefenseGame\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4BDDE-8F64-4C0D-9C13-D2A1510318CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2395C65-4EDB-407B-BE82-5FA7A58AA8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>哈哈哈哈哈啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +451,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -472,8 +480,12 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -491,6 +503,12 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -508,6 +526,12 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -524,6 +548,12 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
